--- a/data/pca/factorExposure/factorExposure_2018-09-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03654646824569228</v>
+        <v>0.02977985097166249</v>
       </c>
       <c r="C2">
-        <v>-0.04650658116538436</v>
+        <v>-0.01250411444927353</v>
       </c>
       <c r="D2">
-        <v>-0.03587265152575012</v>
+        <v>0.01107360923844436</v>
       </c>
       <c r="E2">
-        <v>0.05075632344617186</v>
+        <v>-0.01393551369551562</v>
       </c>
       <c r="F2">
-        <v>-0.1440744663871697</v>
+        <v>0.02352854753088253</v>
       </c>
       <c r="G2">
-        <v>-0.09058371338860811</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07639982678756783</v>
+      </c>
+      <c r="H2">
+        <v>-0.01917116064490897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.123376295888032</v>
+        <v>0.07746006609049248</v>
       </c>
       <c r="C3">
-        <v>-0.009804191040043028</v>
+        <v>0.02013666987951469</v>
       </c>
       <c r="D3">
-        <v>-0.04653129032518338</v>
+        <v>0.02154139214542098</v>
       </c>
       <c r="E3">
-        <v>0.08187149963257505</v>
+        <v>-0.009058534722074022</v>
       </c>
       <c r="F3">
-        <v>-0.4074750664420123</v>
+        <v>-0.01014609850374006</v>
       </c>
       <c r="G3">
-        <v>-0.2460174499246562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2622124441476586</v>
+      </c>
+      <c r="H3">
+        <v>-0.04757392168017568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05031573847307989</v>
+        <v>0.04634731666738022</v>
       </c>
       <c r="C4">
-        <v>-0.03743226745800959</v>
+        <v>6.404808739076648e-06</v>
       </c>
       <c r="D4">
-        <v>0.003567521434091719</v>
+        <v>0.02862462775815901</v>
       </c>
       <c r="E4">
-        <v>0.06856967962383331</v>
+        <v>0.02085638280465094</v>
       </c>
       <c r="F4">
-        <v>-0.06116076958308697</v>
+        <v>0.0608148060894526</v>
       </c>
       <c r="G4">
-        <v>-0.06460277740189012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04262193168103807</v>
+      </c>
+      <c r="H4">
+        <v>-0.0299542522985852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01081280199168688</v>
+        <v>0.03017389881480943</v>
       </c>
       <c r="C6">
-        <v>-0.0007464683847957476</v>
+        <v>-0.0003706681773963423</v>
       </c>
       <c r="D6">
-        <v>-0.01240549893562906</v>
+        <v>0.03475695025032788</v>
       </c>
       <c r="E6">
-        <v>0.00727841166750148</v>
+        <v>0.005197389411514153</v>
       </c>
       <c r="F6">
-        <v>-0.0123493687050152</v>
+        <v>0.03717237176707822</v>
       </c>
       <c r="G6">
-        <v>0.01888866245232872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01287329569553872</v>
+      </c>
+      <c r="H6">
+        <v>-0.05237479081497471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02632411398249267</v>
+        <v>0.02083163810738312</v>
       </c>
       <c r="C7">
-        <v>-0.019428411797461</v>
+        <v>-0.0005138885166125267</v>
       </c>
       <c r="D7">
-        <v>-0.02897221824523039</v>
+        <v>0.01624560520440883</v>
       </c>
       <c r="E7">
-        <v>0.04084753838538015</v>
+        <v>0.03603644115348057</v>
       </c>
       <c r="F7">
-        <v>-0.0672423330326429</v>
+        <v>0.02490957041062818</v>
       </c>
       <c r="G7">
-        <v>-0.0550847458519729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03343620733493811</v>
+      </c>
+      <c r="H7">
+        <v>-0.01614749236425946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01097120715876225</v>
+        <v>0.001379932361692769</v>
       </c>
       <c r="C8">
-        <v>-0.01170448281569967</v>
+        <v>0.0007497369554369466</v>
       </c>
       <c r="D8">
-        <v>0.006655452951174159</v>
+        <v>0.009312200133812143</v>
       </c>
       <c r="E8">
-        <v>0.07479138949068005</v>
+        <v>0.01279820371458742</v>
       </c>
       <c r="F8">
-        <v>-0.08784590539885277</v>
+        <v>0.02642626610704761</v>
       </c>
       <c r="G8">
-        <v>-0.06292848930968524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0489797624307104</v>
+      </c>
+      <c r="H8">
+        <v>-0.01031321836298423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04178330798822475</v>
+        <v>0.03655766653413826</v>
       </c>
       <c r="C9">
-        <v>-0.03093438986645285</v>
+        <v>0.003166386884184665</v>
       </c>
       <c r="D9">
-        <v>0.01541376187629562</v>
+        <v>0.02423860004224997</v>
       </c>
       <c r="E9">
-        <v>0.06835576817138925</v>
+        <v>0.01881572723629113</v>
       </c>
       <c r="F9">
-        <v>-0.06655311037594357</v>
+        <v>0.03841658370117892</v>
       </c>
       <c r="G9">
-        <v>-0.04760013900380396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05499721969471036</v>
+      </c>
+      <c r="H9">
+        <v>-0.02858494955080313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.059760277589617</v>
+        <v>0.08917672953243694</v>
       </c>
       <c r="C10">
-        <v>-0.04638895427655056</v>
+        <v>0.04029783149961013</v>
       </c>
       <c r="D10">
-        <v>0.0151796692773253</v>
+        <v>-0.1451522206628065</v>
       </c>
       <c r="E10">
-        <v>-0.117875725788181</v>
+        <v>-0.01840746977847</v>
       </c>
       <c r="F10">
-        <v>-0.05429448556493593</v>
+        <v>-0.08145168387872817</v>
       </c>
       <c r="G10">
-        <v>0.003102237085467501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02790113219203713</v>
+      </c>
+      <c r="H10">
+        <v>-0.004674447472654693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03204717853533502</v>
+        <v>0.02198700235648375</v>
       </c>
       <c r="C11">
-        <v>-0.01128557709329471</v>
+        <v>0.01045780105347857</v>
       </c>
       <c r="D11">
-        <v>-0.01528143598026906</v>
+        <v>0.03209973371310249</v>
       </c>
       <c r="E11">
-        <v>0.03679456184979921</v>
+        <v>-0.003680176160177781</v>
       </c>
       <c r="F11">
-        <v>-0.03617137310785449</v>
+        <v>0.0243430631805046</v>
       </c>
       <c r="G11">
-        <v>-0.01871366281660491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03227007053080157</v>
+      </c>
+      <c r="H11">
+        <v>-0.02879994323574563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03928726643685973</v>
+        <v>0.03077781536260962</v>
       </c>
       <c r="C12">
-        <v>-0.01200694396225414</v>
+        <v>0.009675267533969941</v>
       </c>
       <c r="D12">
-        <v>-0.002413634859536189</v>
+        <v>0.03121613045704711</v>
       </c>
       <c r="E12">
-        <v>0.04650078021191535</v>
+        <v>0.007215340076501536</v>
       </c>
       <c r="F12">
-        <v>-0.01797696567131987</v>
+        <v>0.0277397806263381</v>
       </c>
       <c r="G12">
-        <v>-0.01500089290995715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01023602489206393</v>
+      </c>
+      <c r="H12">
+        <v>-0.01513196515022864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01786524455099195</v>
+        <v>0.0244995184374001</v>
       </c>
       <c r="C13">
-        <v>-0.02336406067654994</v>
+        <v>-0.01163412887451532</v>
       </c>
       <c r="D13">
-        <v>-0.03478156538881134</v>
+        <v>0.002694693776666336</v>
       </c>
       <c r="E13">
-        <v>0.02185521586622652</v>
+        <v>-0.01632593282803754</v>
       </c>
       <c r="F13">
-        <v>-0.0880226246532451</v>
+        <v>0.02160546903094743</v>
       </c>
       <c r="G13">
-        <v>-0.04927444835380029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06130432284658049</v>
+      </c>
+      <c r="H13">
+        <v>-0.02761535699691585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01072283024031934</v>
+        <v>0.01569013158554775</v>
       </c>
       <c r="C14">
-        <v>-0.02182964699419333</v>
+        <v>0.001548183439470827</v>
       </c>
       <c r="D14">
-        <v>-0.00267366685900197</v>
+        <v>0.0007322405758084584</v>
       </c>
       <c r="E14">
-        <v>0.04016059105812254</v>
+        <v>0.008259652740870482</v>
       </c>
       <c r="F14">
-        <v>-0.06705159091847569</v>
+        <v>0.02623260967652665</v>
       </c>
       <c r="G14">
-        <v>-0.05924905323783886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04165885089453101</v>
+      </c>
+      <c r="H14">
+        <v>0.01748450317228029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02446713292258041</v>
+        <v>0.02289338207230472</v>
       </c>
       <c r="C16">
-        <v>-0.01268085392173004</v>
+        <v>0.01093759031820332</v>
       </c>
       <c r="D16">
-        <v>-0.0125053353061446</v>
+        <v>0.02732834979681771</v>
       </c>
       <c r="E16">
-        <v>0.03489923571245714</v>
+        <v>0.001212535943303664</v>
       </c>
       <c r="F16">
-        <v>-0.0384841125814667</v>
+        <v>0.02535619314281679</v>
       </c>
       <c r="G16">
-        <v>-0.02322587254129373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02740215445649143</v>
+      </c>
+      <c r="H16">
+        <v>-0.02280925806391289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03679521484901835</v>
+        <v>0.03366787329960293</v>
       </c>
       <c r="C19">
-        <v>-0.01475596877395745</v>
+        <v>0.003867341962954784</v>
       </c>
       <c r="D19">
-        <v>-0.02053842083594704</v>
+        <v>0.009253163336005468</v>
       </c>
       <c r="E19">
-        <v>0.04664206392899476</v>
+        <v>-0.002053848158901114</v>
       </c>
       <c r="F19">
-        <v>-0.09943592713381777</v>
+        <v>0.03286600244455129</v>
       </c>
       <c r="G19">
-        <v>-0.05985658160853681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.06669119677804809</v>
+      </c>
+      <c r="H19">
+        <v>-0.04063837720231184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.004493005173086955</v>
+        <v>0.007227581628312225</v>
       </c>
       <c r="C20">
-        <v>-0.0228729146881546</v>
+        <v>-0.006748118374243265</v>
       </c>
       <c r="D20">
-        <v>-0.006382362801179076</v>
+        <v>0.0009841346568240838</v>
       </c>
       <c r="E20">
-        <v>0.03146320626432505</v>
+        <v>0.00128480085181648</v>
       </c>
       <c r="F20">
-        <v>-0.06699647625624709</v>
+        <v>0.01704938764099501</v>
       </c>
       <c r="G20">
-        <v>-0.0597158282681716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04915729149899453</v>
+      </c>
+      <c r="H20">
+        <v>0.008117688796706574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003858306612402827</v>
+        <v>0.02036401217463376</v>
       </c>
       <c r="C21">
-        <v>0.001155189059493536</v>
+        <v>-0.004677805676900396</v>
       </c>
       <c r="D21">
-        <v>-0.00367908788070077</v>
+        <v>0.0007644787613769897</v>
       </c>
       <c r="E21">
-        <v>0.0345538226657501</v>
+        <v>0.01292999094051974</v>
       </c>
       <c r="F21">
-        <v>-0.07771460341004337</v>
+        <v>0.008725076627515409</v>
       </c>
       <c r="G21">
-        <v>-0.01783490690419955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05221424674954994</v>
+      </c>
+      <c r="H21">
+        <v>-0.01017373968743113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02788077321917495</v>
+        <v>0.02183276061309644</v>
       </c>
       <c r="C24">
-        <v>-0.01256567299665856</v>
+        <v>0.005459388557973228</v>
       </c>
       <c r="D24">
-        <v>-0.009347507460057648</v>
+        <v>0.02805243924684801</v>
       </c>
       <c r="E24">
-        <v>0.02809852532785027</v>
+        <v>0.001165863216795535</v>
       </c>
       <c r="F24">
-        <v>-0.03647713630659638</v>
+        <v>0.02114689387701977</v>
       </c>
       <c r="G24">
-        <v>-0.01169005016628882</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02641166620781862</v>
+      </c>
+      <c r="H24">
+        <v>-0.02824593456125583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03088278448033959</v>
+        <v>0.03303486519220064</v>
       </c>
       <c r="C25">
-        <v>-0.01076412126664216</v>
+        <v>0.00530142009103438</v>
       </c>
       <c r="D25">
-        <v>-0.00761286288452987</v>
+        <v>0.02326492233040904</v>
       </c>
       <c r="E25">
-        <v>0.03659777273480232</v>
+        <v>0.001502725876513028</v>
       </c>
       <c r="F25">
-        <v>-0.03315941246353883</v>
+        <v>0.02588668772266739</v>
       </c>
       <c r="G25">
-        <v>-0.005497642438912357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02966709000381297</v>
+      </c>
+      <c r="H25">
+        <v>-0.0305719444801325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01797727797174619</v>
+        <v>0.01886200567808321</v>
       </c>
       <c r="C26">
-        <v>-0.0008766749030448777</v>
+        <v>-0.01621297460692892</v>
       </c>
       <c r="D26">
-        <v>-0.03546799737518939</v>
+        <v>0.003471977836203389</v>
       </c>
       <c r="E26">
-        <v>0.04116511410258455</v>
+        <v>-0.006119004154926041</v>
       </c>
       <c r="F26">
-        <v>-0.05407289737033087</v>
+        <v>0.006138397905300492</v>
       </c>
       <c r="G26">
-        <v>-0.03377827859761113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03491845032769997</v>
+      </c>
+      <c r="H26">
+        <v>0.000922901689729189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07473549520191564</v>
+        <v>0.03197477007765419</v>
       </c>
       <c r="C27">
-        <v>-0.04864648811801209</v>
+        <v>0.01598354389385739</v>
       </c>
       <c r="D27">
-        <v>-0.001142294518312083</v>
+        <v>0.008870006046550839</v>
       </c>
       <c r="E27">
-        <v>0.06101461605295559</v>
+        <v>0.003789587703967774</v>
       </c>
       <c r="F27">
-        <v>-0.05607531729930387</v>
+        <v>0.02780885929369916</v>
       </c>
       <c r="G27">
-        <v>-0.06129105266254258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0261805842538873</v>
+      </c>
+      <c r="H27">
+        <v>0.0001186715145917292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08423777385580154</v>
+        <v>0.1352652071724627</v>
       </c>
       <c r="C28">
-        <v>-0.0623261549731957</v>
+        <v>0.04698253920739984</v>
       </c>
       <c r="D28">
-        <v>0.03291580923032952</v>
+        <v>-0.2146017209484523</v>
       </c>
       <c r="E28">
-        <v>-0.1786743546949306</v>
+        <v>-0.02262795563677336</v>
       </c>
       <c r="F28">
-        <v>-0.0653605245175274</v>
+        <v>-0.1103293291843499</v>
       </c>
       <c r="G28">
-        <v>-0.02853017115408006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.009456527184987115</v>
+      </c>
+      <c r="H28">
+        <v>0.007527524866868271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0181751203433489</v>
+        <v>0.02012321987804313</v>
       </c>
       <c r="C29">
-        <v>-0.02465310935960823</v>
+        <v>0.004111038967132457</v>
       </c>
       <c r="D29">
-        <v>0.00597100273765363</v>
+        <v>0.002597687593388773</v>
       </c>
       <c r="E29">
-        <v>0.05993127714508958</v>
+        <v>0.01058714906662902</v>
       </c>
       <c r="F29">
-        <v>-0.0467307329217016</v>
+        <v>0.02962947962177417</v>
       </c>
       <c r="G29">
-        <v>-0.05852425771691504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03313927589919434</v>
+      </c>
+      <c r="H29">
+        <v>0.01894697778482578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08458631999836637</v>
+        <v>0.05497194354551951</v>
       </c>
       <c r="C30">
-        <v>-0.05291786398790425</v>
+        <v>0.002128192527600417</v>
       </c>
       <c r="D30">
-        <v>-0.03459951244938027</v>
+        <v>0.05316890407061739</v>
       </c>
       <c r="E30">
-        <v>0.09087041517232239</v>
+        <v>-0.03553452086413156</v>
       </c>
       <c r="F30">
-        <v>-0.05506904437881745</v>
+        <v>0.0758041228575082</v>
       </c>
       <c r="G30">
-        <v>-0.024459996807131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06067199866036982</v>
+      </c>
+      <c r="H30">
+        <v>-0.03857901775736379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05933136625405924</v>
+        <v>0.05340497588920956</v>
       </c>
       <c r="C31">
-        <v>-0.01575412273079</v>
+        <v>0.02000043316835452</v>
       </c>
       <c r="D31">
-        <v>-0.04918782441010602</v>
+        <v>0.02361417524573112</v>
       </c>
       <c r="E31">
-        <v>0.04177554326849381</v>
+        <v>-0.009714078689380191</v>
       </c>
       <c r="F31">
-        <v>-0.03482146319186177</v>
+        <v>0.02243588563963383</v>
       </c>
       <c r="G31">
-        <v>-0.08476951527113917</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02045949550241881</v>
+      </c>
+      <c r="H31">
+        <v>0.01424782919376852</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01675042414326528</v>
+        <v>0.008912135717117544</v>
       </c>
       <c r="C32">
-        <v>-0.02286338741452761</v>
+        <v>0.01525719173453108</v>
       </c>
       <c r="D32">
-        <v>0.003336455916063812</v>
+        <v>-0.007193528684281676</v>
       </c>
       <c r="E32">
-        <v>0.07210166866952004</v>
+        <v>0.01849539145505507</v>
       </c>
       <c r="F32">
-        <v>-0.06565598812930215</v>
+        <v>0.04209293582631666</v>
       </c>
       <c r="G32">
-        <v>-0.04272627444028999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04842964322395048</v>
+      </c>
+      <c r="H32">
+        <v>-0.04428522683383691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05106797490111911</v>
+        <v>0.03771301506174798</v>
       </c>
       <c r="C33">
-        <v>-0.002627422604263413</v>
+        <v>0.003811663027974685</v>
       </c>
       <c r="D33">
-        <v>-0.04474722211834333</v>
+        <v>0.03027933068861468</v>
       </c>
       <c r="E33">
-        <v>0.07171881998123235</v>
+        <v>-0.02288783822407634</v>
       </c>
       <c r="F33">
-        <v>-0.08926336050631001</v>
+        <v>0.01457905485853623</v>
       </c>
       <c r="G33">
-        <v>-0.04382718513128151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05717528597238233</v>
+      </c>
+      <c r="H33">
+        <v>-0.01841998086057874</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03028941753021477</v>
+        <v>0.02646636831450262</v>
       </c>
       <c r="C34">
-        <v>-0.01651381988923327</v>
+        <v>0.01984935472750632</v>
       </c>
       <c r="D34">
-        <v>-0.01174980113982756</v>
+        <v>0.02735060681201999</v>
       </c>
       <c r="E34">
-        <v>0.04212721736572057</v>
+        <v>0.00557262844421612</v>
       </c>
       <c r="F34">
-        <v>-0.04142932984345154</v>
+        <v>0.02711175496083867</v>
       </c>
       <c r="G34">
-        <v>-0.01222980659709904</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02561246689193519</v>
+      </c>
+      <c r="H34">
+        <v>-0.02613887523568394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01278040835830039</v>
+        <v>0.01845851746210958</v>
       </c>
       <c r="C36">
-        <v>-0.01356269546793821</v>
+        <v>-0.002434032945495806</v>
       </c>
       <c r="D36">
-        <v>-0.001346979965167559</v>
+        <v>-0.003396107749941642</v>
       </c>
       <c r="E36">
-        <v>0.02971164542776488</v>
+        <v>0.002740303330108466</v>
       </c>
       <c r="F36">
-        <v>-0.02463012150372748</v>
+        <v>0.009107503832246266</v>
       </c>
       <c r="G36">
-        <v>-0.03334591009876497</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01736811185740606</v>
+      </c>
+      <c r="H36">
+        <v>0.003836726616609369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.007913916476892147</v>
+        <v>0.0166201831030234</v>
       </c>
       <c r="C38">
-        <v>0.001922279513412234</v>
+        <v>0.01720328242266611</v>
       </c>
       <c r="D38">
-        <v>0.01066043433536736</v>
+        <v>-0.003938487564050736</v>
       </c>
       <c r="E38">
-        <v>-0.01018102583564116</v>
+        <v>0.005435805890796263</v>
       </c>
       <c r="F38">
-        <v>-0.005241060118684256</v>
+        <v>0.008474176955922693</v>
       </c>
       <c r="G38">
-        <v>0.004527672355305943</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02684847596739914</v>
+      </c>
+      <c r="H38">
+        <v>-0.02130543310589461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0381046496886655</v>
+        <v>0.02354393831737089</v>
       </c>
       <c r="C39">
-        <v>-0.02216569674938855</v>
+        <v>0.003637483514903697</v>
       </c>
       <c r="D39">
-        <v>-0.02957461279338334</v>
+        <v>0.06531946293522606</v>
       </c>
       <c r="E39">
-        <v>0.04346486497191977</v>
+        <v>-0.001993025642939308</v>
       </c>
       <c r="F39">
-        <v>-0.04435482383939231</v>
+        <v>0.04631094086585107</v>
       </c>
       <c r="G39">
-        <v>-0.0142218512120102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05204928657190287</v>
+      </c>
+      <c r="H39">
+        <v>-0.05147406579932957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02899780397496678</v>
+        <v>0.02733729474137459</v>
       </c>
       <c r="C40">
-        <v>-0.03855520322241358</v>
+        <v>0.00268358908776205</v>
       </c>
       <c r="D40">
-        <v>-0.05473597736033827</v>
+        <v>0.02114138770908432</v>
       </c>
       <c r="E40">
-        <v>0.03855828106424928</v>
+        <v>-0.0194795303318232</v>
       </c>
       <c r="F40">
-        <v>-0.0852588147673306</v>
+        <v>0.03741729509050823</v>
       </c>
       <c r="G40">
-        <v>-0.05568730344853165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.03727553924005705</v>
+      </c>
+      <c r="H40">
+        <v>-0.04638750019943161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00207899276093605</v>
+        <v>0.007644062011364566</v>
       </c>
       <c r="C41">
-        <v>0.007733833672743815</v>
+        <v>-0.0007006383910122298</v>
       </c>
       <c r="D41">
-        <v>-0.00608880717153044</v>
+        <v>-0.008818027396287138</v>
       </c>
       <c r="E41">
-        <v>0.021562623095662</v>
+        <v>-0.00141359114244362</v>
       </c>
       <c r="F41">
-        <v>-0.01535140299102646</v>
+        <v>-0.004801338365114619</v>
       </c>
       <c r="G41">
-        <v>-0.05669201614165868</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008058947688984996</v>
+      </c>
+      <c r="H41">
+        <v>0.01777366679405744</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3473425489878644</v>
+        <v>0.2065967726897263</v>
       </c>
       <c r="C42">
-        <v>0.89454312197816</v>
+        <v>-0.09134242517201341</v>
       </c>
       <c r="D42">
-        <v>-0.1963055232516208</v>
+        <v>0.5809012069731183</v>
       </c>
       <c r="E42">
-        <v>-0.09734665364025559</v>
+        <v>-0.119348173485995</v>
       </c>
       <c r="F42">
-        <v>0.02395858623200758</v>
+        <v>-0.7582096238484273</v>
       </c>
       <c r="G42">
-        <v>-0.01309625536759879</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.07232479371569012</v>
+      </c>
+      <c r="H42">
+        <v>-0.01185141406436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.008170790833276502</v>
+        <v>0.004920532666468131</v>
       </c>
       <c r="C43">
-        <v>0.00389340389991506</v>
+        <v>-0.003321044942069327</v>
       </c>
       <c r="D43">
-        <v>-0.009171345793295472</v>
+        <v>-0.01117459028660459</v>
       </c>
       <c r="E43">
-        <v>0.02401774518140869</v>
+        <v>-0.005377336193172564</v>
       </c>
       <c r="F43">
-        <v>-0.0322477668028185</v>
+        <v>-0.00998009891169062</v>
       </c>
       <c r="G43">
-        <v>-0.05470339842727988</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01538535820728556</v>
+      </c>
+      <c r="H43">
+        <v>0.009429384117242635</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01937998438695089</v>
+        <v>0.01211388605034301</v>
       </c>
       <c r="C44">
-        <v>-0.004170175466437396</v>
+        <v>0.0003382083216659311</v>
       </c>
       <c r="D44">
-        <v>-0.02459362964910699</v>
+        <v>0.02244456350815006</v>
       </c>
       <c r="E44">
-        <v>0.06474650827604699</v>
+        <v>0.001377322207191953</v>
       </c>
       <c r="F44">
-        <v>-0.1891207447292101</v>
+        <v>0.005629502112306126</v>
       </c>
       <c r="G44">
-        <v>-0.1660682708354251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08539213413532172</v>
+      </c>
+      <c r="H44">
+        <v>-0.01694326136268704</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01721973578529544</v>
+        <v>0.02067179842598916</v>
       </c>
       <c r="C46">
-        <v>-0.02367841984780928</v>
+        <v>0.0003135026281722722</v>
       </c>
       <c r="D46">
-        <v>-0.0192857953712447</v>
+        <v>0.004959017870368327</v>
       </c>
       <c r="E46">
-        <v>0.06856185210709842</v>
+        <v>-0.001781078682687818</v>
       </c>
       <c r="F46">
-        <v>-0.06753146812075014</v>
+        <v>0.03426907093993364</v>
       </c>
       <c r="G46">
-        <v>-0.04373183797820949</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05393382033299285</v>
+      </c>
+      <c r="H46">
+        <v>0.01209541587606502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09437217239075429</v>
+        <v>0.07370845720596614</v>
       </c>
       <c r="C47">
-        <v>-0.03243431168469406</v>
+        <v>0.03801973696954854</v>
       </c>
       <c r="D47">
-        <v>-0.02552863902131917</v>
+        <v>0.02884243143304035</v>
       </c>
       <c r="E47">
-        <v>0.04652928451660539</v>
+        <v>-0.005522520810214916</v>
       </c>
       <c r="F47">
-        <v>-0.005110613022346891</v>
+        <v>0.03345149662445879</v>
       </c>
       <c r="G47">
-        <v>-0.09352180624929037</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01135239526114159</v>
+      </c>
+      <c r="H47">
+        <v>0.03110373956933239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01058251264079673</v>
+        <v>0.01801378305427086</v>
       </c>
       <c r="C48">
-        <v>-0.006394749039290239</v>
+        <v>0.007362733777504511</v>
       </c>
       <c r="D48">
-        <v>-0.01358325662042165</v>
+        <v>0.003821159071574366</v>
       </c>
       <c r="E48">
-        <v>0.03948999378123568</v>
+        <v>-0.001680812346022494</v>
       </c>
       <c r="F48">
-        <v>-0.04033160543527903</v>
+        <v>0.01185309141005947</v>
       </c>
       <c r="G48">
-        <v>-0.009707212753789522</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02459270029473202</v>
+      </c>
+      <c r="H48">
+        <v>-0.0006997424447947909</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08652571441339151</v>
+        <v>0.06623808772242545</v>
       </c>
       <c r="C50">
-        <v>-0.01394298503817876</v>
+        <v>0.0312688856741762</v>
       </c>
       <c r="D50">
-        <v>-0.03751325912673701</v>
+        <v>0.0415935263184365</v>
       </c>
       <c r="E50">
-        <v>0.06287385639353031</v>
+        <v>0.009445382119819832</v>
       </c>
       <c r="F50">
-        <v>-0.02425481117505898</v>
+        <v>0.02995715499065831</v>
       </c>
       <c r="G50">
-        <v>-0.02024003099070548</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.020271181468868</v>
+      </c>
+      <c r="H50">
+        <v>0.02608353913622114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02676969316674834</v>
+        <v>0.0215637834150824</v>
       </c>
       <c r="C51">
-        <v>-0.02132755769096152</v>
+        <v>0.0026446579227392</v>
       </c>
       <c r="D51">
-        <v>-0.03299400753743376</v>
+        <v>-0.01123632253125433</v>
       </c>
       <c r="E51">
-        <v>0.03199675837326362</v>
+        <v>-0.007934966763334831</v>
       </c>
       <c r="F51">
-        <v>-0.1302697885941089</v>
+        <v>-0.000815780267640523</v>
       </c>
       <c r="G51">
-        <v>-0.0467035567992877</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07287286103834607</v>
+      </c>
+      <c r="H51">
+        <v>-0.02519851650409231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1029390818771609</v>
+        <v>0.0941240515036896</v>
       </c>
       <c r="C53">
-        <v>-0.0462759210581003</v>
+        <v>0.04768915405869436</v>
       </c>
       <c r="D53">
-        <v>-0.04153808202827364</v>
+        <v>0.05538287436458448</v>
       </c>
       <c r="E53">
-        <v>0.05371477233465843</v>
+        <v>-0.003593902685426784</v>
       </c>
       <c r="F53">
-        <v>0.05695550960161222</v>
+        <v>0.06694992944543646</v>
       </c>
       <c r="G53">
-        <v>-0.04145028492668358</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05738564371180976</v>
+      </c>
+      <c r="H53">
+        <v>0.03657790068789249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02030222041240212</v>
+        <v>0.02326300576988908</v>
       </c>
       <c r="C54">
-        <v>-0.03998657926750768</v>
+        <v>0.01554318071440573</v>
       </c>
       <c r="D54">
-        <v>-0.0001827424736315178</v>
+        <v>-0.02497254580338665</v>
       </c>
       <c r="E54">
-        <v>0.02973695255723803</v>
+        <v>0.003414031020241711</v>
       </c>
       <c r="F54">
-        <v>-0.07723842891379459</v>
+        <v>0.01197532649818068</v>
       </c>
       <c r="G54">
-        <v>-0.06436202482610998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03933610233972387</v>
+      </c>
+      <c r="H54">
+        <v>0.01707379176664348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1007305533740251</v>
+        <v>0.0818838498252546</v>
       </c>
       <c r="C55">
-        <v>-0.03013302008479917</v>
+        <v>0.04227615492850351</v>
       </c>
       <c r="D55">
-        <v>-0.0007246175652705077</v>
+        <v>0.0544446061899359</v>
       </c>
       <c r="E55">
-        <v>0.05671535702488837</v>
+        <v>0.008338880249066059</v>
       </c>
       <c r="F55">
-        <v>0.04388882344880867</v>
+        <v>0.05501976703680064</v>
       </c>
       <c r="G55">
-        <v>-0.05656921814913861</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03450166620954719</v>
+      </c>
+      <c r="H55">
+        <v>0.04837738338923805</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1442109460255407</v>
+        <v>0.1261120235966436</v>
       </c>
       <c r="C56">
-        <v>-0.07154248268833574</v>
+        <v>0.07021498891473345</v>
       </c>
       <c r="D56">
-        <v>-0.02717546348444303</v>
+        <v>0.07466848847425883</v>
       </c>
       <c r="E56">
-        <v>0.0730372752785273</v>
+        <v>0.0005606566469056432</v>
       </c>
       <c r="F56">
-        <v>0.1618042920562262</v>
+        <v>0.09394707485401393</v>
       </c>
       <c r="G56">
-        <v>-0.02728660834442802</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.102610057385054</v>
+      </c>
+      <c r="H56">
+        <v>0.02989358019540144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04431947489970389</v>
+        <v>0.04596954386619368</v>
       </c>
       <c r="C57">
-        <v>-0.0105814205078136</v>
+        <v>-0.003590119576749798</v>
       </c>
       <c r="D57">
-        <v>-0.03564696430753691</v>
+        <v>0.01869488807225234</v>
       </c>
       <c r="E57">
-        <v>0.005595623811646635</v>
+        <v>-0.01207447914527189</v>
       </c>
       <c r="F57">
-        <v>-0.07540853451246046</v>
+        <v>0.02493024035403272</v>
       </c>
       <c r="G57">
-        <v>-0.0230763845765845</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06024548843490167</v>
+      </c>
+      <c r="H57">
+        <v>-0.01258017459112977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2031307477618582</v>
+        <v>0.1490227573320077</v>
       </c>
       <c r="C58">
-        <v>-0.05838471376701805</v>
+        <v>0.05919195691569466</v>
       </c>
       <c r="D58">
-        <v>-0.1095545474172498</v>
+        <v>0.1146484206289199</v>
       </c>
       <c r="E58">
-        <v>0.2337911440456478</v>
+        <v>-0.1186924772833256</v>
       </c>
       <c r="F58">
-        <v>-0.2812574209210995</v>
+        <v>0.05741531405041044</v>
       </c>
       <c r="G58">
-        <v>0.3654558926008638</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.7035163374998111</v>
+      </c>
+      <c r="H58">
+        <v>0.5309581104267782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08214304384109131</v>
+        <v>0.1373523021223286</v>
       </c>
       <c r="C59">
-        <v>-0.08644710957942521</v>
+        <v>0.05429716646387251</v>
       </c>
       <c r="D59">
-        <v>0.02388258047239065</v>
+        <v>-0.2132412266733676</v>
       </c>
       <c r="E59">
-        <v>-0.1546697821922259</v>
+        <v>-0.03999307543466607</v>
       </c>
       <c r="F59">
-        <v>-0.06287824624068401</v>
+        <v>-0.09102153696517892</v>
       </c>
       <c r="G59">
-        <v>0.002278816345743367</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01687269157637459</v>
+      </c>
+      <c r="H59">
+        <v>-0.02285922840895502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1689200924974852</v>
+        <v>0.1674897666522203</v>
       </c>
       <c r="C60">
-        <v>-0.05923926291312463</v>
+        <v>0.05536272287573416</v>
       </c>
       <c r="D60">
-        <v>-0.07289519616609638</v>
+        <v>0.01252006536273538</v>
       </c>
       <c r="E60">
-        <v>0.02074269224644446</v>
+        <v>-0.05627313888166705</v>
       </c>
       <c r="F60">
-        <v>-0.0871117197000356</v>
+        <v>0.06002100938979645</v>
       </c>
       <c r="G60">
-        <v>0.2848484128761259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1248026279009407</v>
+      </c>
+      <c r="H60">
+        <v>-0.3776653250526852</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0211131824270135</v>
+        <v>0.02309577474016882</v>
       </c>
       <c r="C61">
-        <v>-0.01215839021302486</v>
+        <v>0.009169862837134965</v>
       </c>
       <c r="D61">
-        <v>-0.005337053449169344</v>
+        <v>0.03456296642946487</v>
       </c>
       <c r="E61">
-        <v>0.01873586213822673</v>
+        <v>0.002505024975671481</v>
       </c>
       <c r="F61">
-        <v>-0.03371092020695905</v>
+        <v>0.03262062054009614</v>
       </c>
       <c r="G61">
-        <v>-0.00373500342319213</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03028246189325268</v>
+      </c>
+      <c r="H61">
+        <v>-0.03829853185231172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01885413424503584</v>
+        <v>0.01483154353960166</v>
       </c>
       <c r="C63">
-        <v>-0.01716644541008096</v>
+        <v>0.0007497665227308387</v>
       </c>
       <c r="D63">
-        <v>-0.0126722998082028</v>
+        <v>0.004919512676413167</v>
       </c>
       <c r="E63">
-        <v>0.04225492520165657</v>
+        <v>0.001880185499226662</v>
       </c>
       <c r="F63">
-        <v>-0.01193262777558133</v>
+        <v>0.02251015950669982</v>
       </c>
       <c r="G63">
-        <v>-0.03797024843605578</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01436376090508738</v>
+      </c>
+      <c r="H63">
+        <v>0.01280542844364483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03216558440740372</v>
+        <v>0.03825820479715918</v>
       </c>
       <c r="C64">
-        <v>-0.02284302935338794</v>
+        <v>0.01370207397716633</v>
       </c>
       <c r="D64">
-        <v>0.02072733585067756</v>
+        <v>0.03041272392736004</v>
       </c>
       <c r="E64">
-        <v>0.04498564525255811</v>
+        <v>0.01181865575702762</v>
       </c>
       <c r="F64">
-        <v>-0.02127386144806857</v>
+        <v>0.02752239168038448</v>
       </c>
       <c r="G64">
-        <v>-0.07205322436541121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01479267673256443</v>
+      </c>
+      <c r="H64">
+        <v>-0.0285320205598239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01128998582820186</v>
+        <v>0.03579434805322999</v>
       </c>
       <c r="C65">
-        <v>0.0004730131091087214</v>
+        <v>7.184926589033702e-06</v>
       </c>
       <c r="D65">
-        <v>-0.01102953170405774</v>
+        <v>0.0395199469045305</v>
       </c>
       <c r="E65">
-        <v>0.004463668738218531</v>
+        <v>0.005257884208476798</v>
       </c>
       <c r="F65">
-        <v>-0.007703953131884191</v>
+        <v>0.03795003906714835</v>
       </c>
       <c r="G65">
-        <v>0.01911087101928241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.001542876175514531</v>
+      </c>
+      <c r="H65">
+        <v>-0.06019256300226546</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03619888764304545</v>
+        <v>0.03085070614023499</v>
       </c>
       <c r="C66">
-        <v>-0.02517225145139928</v>
+        <v>0.009714251807033034</v>
       </c>
       <c r="D66">
-        <v>-0.02242840649384007</v>
+        <v>0.07289792412066516</v>
       </c>
       <c r="E66">
-        <v>0.0462506152329674</v>
+        <v>-0.007279756590003265</v>
       </c>
       <c r="F66">
-        <v>-0.03815909540102078</v>
+        <v>0.06560411358659902</v>
       </c>
       <c r="G66">
-        <v>-0.006324489479128546</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04198475480748235</v>
+      </c>
+      <c r="H66">
+        <v>-0.06181739114776266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02666246153132531</v>
+        <v>0.03664903216583628</v>
       </c>
       <c r="C67">
-        <v>-0.005790810886007585</v>
+        <v>0.02272018994836462</v>
       </c>
       <c r="D67">
-        <v>0.01238418481510753</v>
+        <v>-0.01036601739588404</v>
       </c>
       <c r="E67">
-        <v>-0.03633228292082243</v>
+        <v>0.001929108911623613</v>
       </c>
       <c r="F67">
-        <v>-0.0110544108836833</v>
+        <v>0.01040806656455932</v>
       </c>
       <c r="G67">
-        <v>0.002192069461419329</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0165167551549583</v>
+      </c>
+      <c r="H67">
+        <v>-0.03199345889249101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09030287131078119</v>
+        <v>0.1398624204914228</v>
       </c>
       <c r="C68">
-        <v>-0.06510371104341899</v>
+        <v>0.0325933549529434</v>
       </c>
       <c r="D68">
-        <v>0.03701931683664913</v>
+        <v>-0.1973959981824119</v>
       </c>
       <c r="E68">
-        <v>-0.1783265427885342</v>
+        <v>-0.03511435094582942</v>
       </c>
       <c r="F68">
-        <v>-0.03732566538392959</v>
+        <v>-0.1101528126511856</v>
       </c>
       <c r="G68">
-        <v>0.05171415700279655</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.0178596158579733</v>
+      </c>
+      <c r="H68">
+        <v>0.03813564485285256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07381689448490643</v>
+        <v>0.0571784366064435</v>
       </c>
       <c r="C69">
-        <v>-0.03256390663789465</v>
+        <v>0.03414858974305147</v>
       </c>
       <c r="D69">
-        <v>-0.02662368284930776</v>
+        <v>0.02649203187529189</v>
       </c>
       <c r="E69">
-        <v>0.009432672009157468</v>
+        <v>-0.00518737252206439</v>
       </c>
       <c r="F69">
-        <v>-0.02008151872122709</v>
+        <v>0.0313547427746518</v>
       </c>
       <c r="G69">
-        <v>-0.07063323966230192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.003668259574952342</v>
+      </c>
+      <c r="H69">
+        <v>0.01190420974108521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1101201740937286</v>
+        <v>0.1339557541635093</v>
       </c>
       <c r="C71">
-        <v>-0.06861288737520112</v>
+        <v>0.04049259738091457</v>
       </c>
       <c r="D71">
-        <v>0.0145588701737558</v>
+        <v>-0.184539981244849</v>
       </c>
       <c r="E71">
-        <v>-0.2164983668602819</v>
+        <v>-0.0353434577489608</v>
       </c>
       <c r="F71">
-        <v>-0.04981433363640696</v>
+        <v>-0.1161536696256614</v>
       </c>
       <c r="G71">
-        <v>-0.005767693257809322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01533670741724308</v>
+      </c>
+      <c r="H71">
+        <v>0.0218628471955562</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1126602274202565</v>
+        <v>0.0875882857085839</v>
       </c>
       <c r="C72">
-        <v>-0.09591278802624349</v>
+        <v>0.05255715375346089</v>
       </c>
       <c r="D72">
-        <v>-0.01804313910828356</v>
+        <v>0.05635452476316337</v>
       </c>
       <c r="E72">
-        <v>0.06591140120623498</v>
+        <v>-0.01019480770426518</v>
       </c>
       <c r="F72">
-        <v>-0.08702751514676782</v>
+        <v>0.1103350168970844</v>
       </c>
       <c r="G72">
-        <v>0.1674493421399861</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09451172094689556</v>
+      </c>
+      <c r="H72">
+        <v>-0.1508362741871555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2543129067117963</v>
+        <v>0.2384632575239776</v>
       </c>
       <c r="C73">
-        <v>-0.08650891601535114</v>
+        <v>0.07462933868305664</v>
       </c>
       <c r="D73">
-        <v>-0.06809727959115439</v>
+        <v>0.04120151678156402</v>
       </c>
       <c r="E73">
-        <v>-0.02297152126383482</v>
+        <v>-0.08612899805628094</v>
       </c>
       <c r="F73">
-        <v>-0.1651190827736743</v>
+        <v>0.07155833973088288</v>
       </c>
       <c r="G73">
-        <v>0.4389055055699787</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1796333201332066</v>
+      </c>
+      <c r="H73">
+        <v>-0.5139571345942348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1231140619159384</v>
+        <v>0.1131710539238491</v>
       </c>
       <c r="C74">
-        <v>-0.038124707348112</v>
+        <v>0.06241632383940808</v>
       </c>
       <c r="D74">
-        <v>-0.03576104734332235</v>
+        <v>0.07598206170091945</v>
       </c>
       <c r="E74">
-        <v>0.03428579329358237</v>
+        <v>-0.007760663756373842</v>
       </c>
       <c r="F74">
-        <v>0.1136072161929777</v>
+        <v>0.07819931125281719</v>
       </c>
       <c r="G74">
-        <v>-0.01795290756636872</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07878046770158909</v>
+      </c>
+      <c r="H74">
+        <v>0.009691155104450479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2179043224862604</v>
+        <v>0.2239978004121377</v>
       </c>
       <c r="C75">
-        <v>-0.1130938525145506</v>
+        <v>0.1256309961356377</v>
       </c>
       <c r="D75">
-        <v>-0.0695539661495473</v>
+        <v>0.1143156415462636</v>
       </c>
       <c r="E75">
-        <v>0.09880743348450238</v>
+        <v>-0.0276561049252724</v>
       </c>
       <c r="F75">
-        <v>0.1763491158859226</v>
+        <v>0.1560154700689639</v>
       </c>
       <c r="G75">
-        <v>-0.09988813735470037</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1566157344568594</v>
+      </c>
+      <c r="H75">
+        <v>0.09475808744740234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2618224279362149</v>
+        <v>0.2060008924722001</v>
       </c>
       <c r="C76">
-        <v>-0.1132375763780958</v>
+        <v>0.1195753339325905</v>
       </c>
       <c r="D76">
-        <v>-0.009467406738056025</v>
+        <v>0.1026412088861381</v>
       </c>
       <c r="E76">
-        <v>0.06678763124638719</v>
+        <v>0.01357682291040342</v>
       </c>
       <c r="F76">
-        <v>0.1994431113745074</v>
+        <v>0.1489118780306625</v>
       </c>
       <c r="G76">
-        <v>-0.08195980815270898</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1692545849779521</v>
+      </c>
+      <c r="H76">
+        <v>0.0952264301267368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1391326699939266</v>
+        <v>0.0746637513873931</v>
       </c>
       <c r="C77">
-        <v>0.01994140763457229</v>
+        <v>0.01665443995700279</v>
       </c>
       <c r="D77">
-        <v>-0.06910066416941504</v>
+        <v>0.07475296442795791</v>
       </c>
       <c r="E77">
-        <v>0.1162815878495608</v>
+        <v>-0.01465702163279249</v>
       </c>
       <c r="F77">
-        <v>-0.2370793943765002</v>
+        <v>0.006722872051610611</v>
       </c>
       <c r="G77">
-        <v>-0.1552205086039528</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1250083973459184</v>
+      </c>
+      <c r="H77">
+        <v>0.06020270102863793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05038740902605317</v>
+        <v>0.03424116587049991</v>
       </c>
       <c r="C78">
-        <v>-0.01392968147299623</v>
+        <v>0.01267752800251496</v>
       </c>
       <c r="D78">
-        <v>-0.03219213096444909</v>
+        <v>0.05824875804515014</v>
       </c>
       <c r="E78">
-        <v>0.1102012184051922</v>
+        <v>0.003624156392923441</v>
       </c>
       <c r="F78">
-        <v>-0.03453781511392699</v>
+        <v>0.05365067259300697</v>
       </c>
       <c r="G78">
-        <v>-0.0550753490959346</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.04978983035138412</v>
+      </c>
+      <c r="H78">
+        <v>-0.03004744314256153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2189860254698891</v>
+        <v>0.1762446478943594</v>
       </c>
       <c r="C80">
-        <v>0.1523335435475461</v>
+        <v>0.07190520510868045</v>
       </c>
       <c r="D80">
-        <v>0.9259757556843903</v>
+        <v>0.01481978063581319</v>
       </c>
       <c r="E80">
-        <v>0.2190480398723676</v>
+        <v>0.9605870142732065</v>
       </c>
       <c r="F80">
-        <v>-0.04621589376469928</v>
+        <v>-0.1177680094213664</v>
       </c>
       <c r="G80">
-        <v>0.03206994109124858</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1009360392489871</v>
+      </c>
+      <c r="H80">
+        <v>-0.009734749683540796</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1548677360222793</v>
+        <v>0.1509091873241311</v>
       </c>
       <c r="C81">
-        <v>-0.09463255846314467</v>
+        <v>0.08431083489556183</v>
       </c>
       <c r="D81">
-        <v>-0.02098934646661678</v>
+        <v>0.06689961948830485</v>
       </c>
       <c r="E81">
-        <v>0.06064660210267058</v>
+        <v>-0.003993347923937541</v>
       </c>
       <c r="F81">
-        <v>0.1690697517587907</v>
+        <v>0.1064081535558231</v>
       </c>
       <c r="G81">
-        <v>-0.02292343188582863</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1033473663837093</v>
+      </c>
+      <c r="H81">
+        <v>0.06854305357412672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04882059543660461</v>
+        <v>0.03687752804071939</v>
       </c>
       <c r="C83">
-        <v>0.008717806954633743</v>
+        <v>0.01073225011942618</v>
       </c>
       <c r="D83">
-        <v>-0.03922954038311065</v>
+        <v>0.0200376998961575</v>
       </c>
       <c r="E83">
-        <v>0.04420107546950947</v>
+        <v>-0.0127437397939884</v>
       </c>
       <c r="F83">
-        <v>-0.06648415126496821</v>
+        <v>0.01441931323240941</v>
       </c>
       <c r="G83">
-        <v>-0.05323041505103116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05455879991934987</v>
+      </c>
+      <c r="H83">
+        <v>-0.01742424169025692</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2263387998067317</v>
+        <v>0.2096381656576396</v>
       </c>
       <c r="C85">
-        <v>-0.09732960212760752</v>
+        <v>0.1051202148065539</v>
       </c>
       <c r="D85">
-        <v>-0.04115791508282134</v>
+        <v>0.1186676055698552</v>
       </c>
       <c r="E85">
-        <v>0.06420375888740115</v>
+        <v>-0.01646809882699415</v>
       </c>
       <c r="F85">
-        <v>0.1913652259460882</v>
+        <v>0.138477097092558</v>
       </c>
       <c r="G85">
-        <v>-0.09565403279057635</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1677766092412827</v>
+      </c>
+      <c r="H85">
+        <v>0.06539682785238551</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.004517519376931192</v>
+        <v>0.0134442824470062</v>
       </c>
       <c r="C86">
-        <v>0.008458386627539533</v>
+        <v>-0.0009946242461091543</v>
       </c>
       <c r="D86">
-        <v>-0.002127081681233011</v>
+        <v>0.005086189320819933</v>
       </c>
       <c r="E86">
-        <v>0.05123490573397423</v>
+        <v>-0.009054634438234862</v>
       </c>
       <c r="F86">
-        <v>-0.07643505534590678</v>
+        <v>-0.001248210005495078</v>
       </c>
       <c r="G86">
-        <v>-0.0336553113483064</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.080408831344602</v>
+      </c>
+      <c r="H86">
+        <v>-0.0422913733022889</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02986568435066798</v>
+        <v>0.02714380771414551</v>
       </c>
       <c r="C87">
-        <v>-0.007336106265456857</v>
+        <v>0.005237588223607133</v>
       </c>
       <c r="D87">
-        <v>-0.01444221638584615</v>
+        <v>0.02610045795864246</v>
       </c>
       <c r="E87">
-        <v>0.03236954373540658</v>
+        <v>-0.001240044403986533</v>
       </c>
       <c r="F87">
-        <v>-0.07909700194998116</v>
+        <v>0.02674574429096951</v>
       </c>
       <c r="G87">
-        <v>0.01589693182927194</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08907234798785016</v>
+      </c>
+      <c r="H87">
+        <v>-0.03136041719157144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01017998077069052</v>
+        <v>0.03855155968494962</v>
       </c>
       <c r="C88">
-        <v>-0.0172805410101951</v>
+        <v>-0.00639849215222451</v>
       </c>
       <c r="D88">
-        <v>0.02437828440753527</v>
+        <v>-0.006223302349787907</v>
       </c>
       <c r="E88">
-        <v>-0.002790524730477621</v>
+        <v>0.007352097797742879</v>
       </c>
       <c r="F88">
-        <v>-0.03268688205400508</v>
+        <v>0.01236846764288369</v>
       </c>
       <c r="G88">
-        <v>-0.08623464260731609</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.002753373079484558</v>
+      </c>
+      <c r="H88">
+        <v>-0.0075556649896324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1328749087300933</v>
+        <v>0.2166704885825768</v>
       </c>
       <c r="C89">
-        <v>-0.08891092099561056</v>
+        <v>0.06170752498597309</v>
       </c>
       <c r="D89">
-        <v>0.01990661375686976</v>
+        <v>-0.3179341610066784</v>
       </c>
       <c r="E89">
-        <v>-0.2959896581103198</v>
+        <v>-0.07667968252057943</v>
       </c>
       <c r="F89">
-        <v>-0.10246793262433</v>
+        <v>-0.1650413700987597</v>
       </c>
       <c r="G89">
-        <v>-0.06788258326022135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.006627420668226209</v>
+      </c>
+      <c r="H89">
+        <v>0.02610174357176891</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1210567185009264</v>
+        <v>0.1722065703097905</v>
       </c>
       <c r="C90">
-        <v>-0.08924816361822664</v>
+        <v>0.04996688529713062</v>
       </c>
       <c r="D90">
-        <v>0.06665814479580506</v>
+        <v>-0.2804681968589254</v>
       </c>
       <c r="E90">
-        <v>-0.285829794112021</v>
+        <v>-0.04997962479341762</v>
       </c>
       <c r="F90">
-        <v>-0.07372625517043599</v>
+        <v>-0.1595219428523633</v>
       </c>
       <c r="G90">
-        <v>0.007538482176990538</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03434540785657383</v>
+      </c>
+      <c r="H90">
+        <v>0.04532308594999277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2912619328988621</v>
+        <v>0.2280173681686959</v>
       </c>
       <c r="C91">
-        <v>-0.0903480186355055</v>
+        <v>0.1261461869439321</v>
       </c>
       <c r="D91">
-        <v>-0.0626376813682331</v>
+        <v>0.1214022994736561</v>
       </c>
       <c r="E91">
-        <v>0.06129574391507153</v>
+        <v>-0.01940912296679828</v>
       </c>
       <c r="F91">
-        <v>0.2616403584943409</v>
+        <v>0.1468949297155313</v>
       </c>
       <c r="G91">
-        <v>-0.05581001716178691</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2055312020377506</v>
+      </c>
+      <c r="H91">
+        <v>0.1291853500680392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1887042386925893</v>
+        <v>0.227622748386041</v>
       </c>
       <c r="C92">
-        <v>-0.0715229056744166</v>
+        <v>0.1205434353008601</v>
       </c>
       <c r="D92">
-        <v>0.1007911499378325</v>
+        <v>-0.2275829637565313</v>
       </c>
       <c r="E92">
-        <v>-0.452505882088193</v>
+        <v>-0.03339870032791228</v>
       </c>
       <c r="F92">
-        <v>-0.1532785399208362</v>
+        <v>-0.1322184568744849</v>
       </c>
       <c r="G92">
-        <v>-0.2452382226491291</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0397794449616181</v>
+      </c>
+      <c r="H92">
+        <v>0.1441724906069546</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1352252266683039</v>
+        <v>0.1977846821332088</v>
       </c>
       <c r="C93">
-        <v>-0.07149415148034383</v>
+        <v>0.06426084109045005</v>
       </c>
       <c r="D93">
-        <v>0.07778033980098532</v>
+        <v>-0.2958566398429722</v>
       </c>
       <c r="E93">
-        <v>-0.3933089016431786</v>
+        <v>-0.0661761988420599</v>
       </c>
       <c r="F93">
-        <v>-0.01967094046029353</v>
+        <v>-0.1956976440809105</v>
       </c>
       <c r="G93">
-        <v>0.02195379989122035</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04492579485275531</v>
+      </c>
+      <c r="H93">
+        <v>-0.01441383468638967</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2652715680778902</v>
+        <v>0.2509153089608054</v>
       </c>
       <c r="C94">
-        <v>-0.1205641492053472</v>
+        <v>0.1179967618300099</v>
       </c>
       <c r="D94">
-        <v>-0.02870039545220655</v>
+        <v>0.09541369704279312</v>
       </c>
       <c r="E94">
-        <v>0.05160085995751944</v>
+        <v>-0.03629506258728529</v>
       </c>
       <c r="F94">
-        <v>0.3004785014934935</v>
+        <v>0.1598960802845849</v>
       </c>
       <c r="G94">
-        <v>-0.006759846756950029</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2104531826311239</v>
+      </c>
+      <c r="H94">
+        <v>0.1421091001994438</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07446294588912561</v>
+        <v>0.06536575802980979</v>
       </c>
       <c r="C95">
-        <v>-0.01090554377124762</v>
+        <v>0.03879911041208197</v>
       </c>
       <c r="D95">
-        <v>-0.06563630552074322</v>
+        <v>0.07427850981102897</v>
       </c>
       <c r="E95">
-        <v>0.08423496291702633</v>
+        <v>-0.07267328669939405</v>
       </c>
       <c r="F95">
-        <v>-0.03842121399635643</v>
+        <v>0.03136292575738448</v>
       </c>
       <c r="G95">
-        <v>-0.3777002290793769</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05705324950684883</v>
+      </c>
+      <c r="H95">
+        <v>-0.009023763975658218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1879044269393559</v>
+        <v>0.1738021359883559</v>
       </c>
       <c r="C98">
-        <v>-0.03982341616321269</v>
+        <v>0.08698320766344876</v>
       </c>
       <c r="D98">
-        <v>-0.05552096281779839</v>
+        <v>0.03067041040712776</v>
       </c>
       <c r="E98">
-        <v>-0.05204838012386569</v>
+        <v>-0.05729660550807048</v>
       </c>
       <c r="F98">
-        <v>-0.05827756080688448</v>
+        <v>0.03009801675243887</v>
       </c>
       <c r="G98">
-        <v>0.2837159140667862</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1515681431053003</v>
+      </c>
+      <c r="H98">
+        <v>-0.3714505792335217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001708370788479865</v>
+        <v>0.0133248471664713</v>
       </c>
       <c r="C101">
-        <v>-0.03141668979954559</v>
+        <v>0.001427931846995516</v>
       </c>
       <c r="D101">
-        <v>-0.006745091792405641</v>
+        <v>0.002712111961833286</v>
       </c>
       <c r="E101">
-        <v>0.1291721657725876</v>
+        <v>0.006032137980872368</v>
       </c>
       <c r="F101">
-        <v>-0.165130996724094</v>
+        <v>0.03700016706570718</v>
       </c>
       <c r="G101">
-        <v>0.0400829997259339</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09599584921182938</v>
+      </c>
+      <c r="H101">
+        <v>0.07018801735086305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09439214732983915</v>
+        <v>0.1059204769133566</v>
       </c>
       <c r="C102">
-        <v>-0.02733843637361312</v>
+        <v>0.04529022569180152</v>
       </c>
       <c r="D102">
-        <v>-0.01177104417775952</v>
+        <v>0.06050177129912086</v>
       </c>
       <c r="E102">
-        <v>0.06696830532519113</v>
+        <v>-0.001864890764045955</v>
       </c>
       <c r="F102">
-        <v>0.1261341521156986</v>
+        <v>0.07190523583373751</v>
       </c>
       <c r="G102">
-        <v>-0.09281412015933381</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09190491122557368</v>
+      </c>
+      <c r="H102">
+        <v>0.05595984008973831</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.0249751842677011</v>
+        <v>0.02181469453182196</v>
       </c>
       <c r="C103">
-        <v>-0.01218378002858042</v>
+        <v>0.01055838598116002</v>
       </c>
       <c r="D103">
-        <v>-0.01119208958781283</v>
+        <v>0.01304680434240041</v>
       </c>
       <c r="E103">
-        <v>0.004740801266906073</v>
+        <v>0.005163598386449975</v>
       </c>
       <c r="F103">
-        <v>0.02481525347086497</v>
+        <v>0.01864708585984628</v>
       </c>
       <c r="G103">
-        <v>-0.03786510096438593</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.009000994066657848</v>
+      </c>
+      <c r="H103">
+        <v>0.00941186441278451</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3652862785562934</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9090877799307311</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06136153119735652</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02456469110476992</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.156387642201193</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03772612574974006</v>
+      </c>
+      <c r="H104">
+        <v>0.03208836882905743</v>
       </c>
     </row>
   </sheetData>
